--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{942834AE-0C94-4C07-87B5-923970804078}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C3363DF4-70FE-46C7-B60F-3340F1B61685}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACC" sheetId="1" r:id="rId1"/>
@@ -53,27 +53,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADHD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ind_ex=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mci vs.nc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ind_ex=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emci vs lmci</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emci vs nc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,6 +187,19 @@
   <si>
     <t>proposed_th_Auc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>Data4</t>
   </si>
 </sst>
 </file>
@@ -616,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -629,12 +626,12 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -861,16 +858,16 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
@@ -928,23 +925,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -952,12 +949,12 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1220,12 +1217,12 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -1367,7 +1364,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -1436,7 +1433,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -1543,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1">
         <v>0.01</v>
@@ -2151,7 +2148,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>0.01</v>
@@ -2759,7 +2756,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1">
         <v>0.01</v>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B53" s="1">
         <v>0.01</v>
@@ -4004,55 +4001,55 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:18">
@@ -9436,55 +9433,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -14812,55 +14809,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -20174,7 +20171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
@@ -20188,55 +20185,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
